--- a/Hoa12.xlsx
+++ b/Hoa12.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LTUDQL1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LTUDQL1\DA-LTUDQL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="5115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="5115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CauHoi" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
   <si>
     <t>maCH</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>Dễ Ăn</t>
-  </si>
-  <si>
-    <t>môn học</t>
-  </si>
-  <si>
-    <t>Khối</t>
   </si>
   <si>
     <t>Cho các dãy chất sau: amilozơ, amilopectin, saccarozơ, xenlulozơ, fructozơ, glucozơ. Số chất trong dãy bị thủy phân khi đun nóng với dung dịch axit vô cơ là</t>
@@ -1532,6 +1526,15 @@
   </si>
   <si>
     <t>Lý thuyết đề cương chương 6,7</t>
+  </si>
+  <si>
+    <t>maMH</t>
+  </si>
+  <si>
+    <t>maKhoi</t>
+  </si>
+  <si>
+    <t>TenCD</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1612,6 +1615,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1919,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,20 +1941,20 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1956,19 +1962,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
         <v>84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1976,19 +1982,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
         <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1996,19 +2002,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
         <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -2016,19 +2022,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2036,19 +2042,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2056,19 +2062,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2076,19 +2082,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2096,19 +2102,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2116,19 +2122,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
@@ -2136,19 +2142,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2156,19 +2162,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2176,19 +2182,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2196,19 +2202,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2216,19 +2222,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,19 +2242,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2256,19 +2262,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -2276,19 +2282,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2296,19 +2302,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.35">
@@ -2316,19 +2322,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2336,19 +2342,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2377,7 +2383,7 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -2485,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2500,7 +2506,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -2515,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -2530,7 +2536,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -2545,7 +2551,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2560,7 +2566,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -2575,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -2785,7 +2791,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2800,7 +2806,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2815,7 +2821,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2830,7 +2836,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2845,7 +2851,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2860,7 +2866,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2875,7 +2881,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -2905,7 +2911,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2920,7 +2926,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -2935,7 +2941,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -2950,7 +2956,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -2965,7 +2971,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -2980,7 +2986,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -2995,7 +3001,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -3010,7 +3016,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -3025,7 +3031,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -3040,7 +3046,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -3055,7 +3061,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -3070,7 +3076,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -3085,7 +3091,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -3100,7 +3106,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -3115,7 +3121,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -3130,7 +3136,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -3145,7 +3151,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -3160,7 +3166,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -3175,7 +3181,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -3190,7 +3196,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -3205,7 +3211,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -3220,7 +3226,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -3235,7 +3241,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -3310,7 +3316,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -3325,7 +3331,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -3340,7 +3346,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -3355,7 +3361,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -3370,7 +3376,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -3385,7 +3391,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -3400,7 +3406,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -3415,7 +3421,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -3490,7 +3496,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -3505,7 +3511,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -3520,7 +3526,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -3535,7 +3541,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -3550,7 +3556,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -3565,7 +3571,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
@@ -3580,7 +3586,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -3595,7 +3601,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -3611,8 +3617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3622,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
